--- a/data/GreenHouse_5_2024.xlsx
+++ b/data/GreenHouse_5_2024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/GreenHouse_5_2024.xlsx
+++ b/data/GreenHouse_5_2024.xlsx
@@ -928,13 +928,13 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B3" s="11" t="n"/>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
@@ -959,12 +959,8 @@
           <t>2024-01</t>
         </is>
       </c>
-      <c r="J3" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" s="11" t="n">
-        <v>4</v>
-      </c>
+      <c r="J3" s="11" t="n"/>
+      <c r="K3" s="11" t="n"/>
       <c r="L3" s="1" t="n">
         <v/>
       </c>
@@ -1076,13 +1072,13 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B4" s="11" t="n"/>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
@@ -1107,12 +1103,8 @@
           <t>2024-02</t>
         </is>
       </c>
-      <c r="J4" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K4" s="11" t="n">
-        <v>3</v>
-      </c>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
       <c r="L4" s="1" t="n">
         <v/>
       </c>
@@ -1224,13 +1216,13 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B5" s="11" t="n"/>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
@@ -1255,12 +1247,8 @@
           <t>2024-03</t>
         </is>
       </c>
-      <c r="J5" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K5" s="11" t="n">
-        <v>3</v>
-      </c>
+      <c r="J5" s="11" t="n"/>
+      <c r="K5" s="11" t="n"/>
       <c r="L5" s="1" t="n">
         <v/>
       </c>
@@ -1372,13 +1360,13 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B6" s="11" t="n"/>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D6" s="11" t="inlineStr">
@@ -1403,12 +1391,8 @@
           <t>2024-04</t>
         </is>
       </c>
-      <c r="J6" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K6" s="11" t="n">
-        <v>3</v>
-      </c>
+      <c r="J6" s="11" t="n"/>
+      <c r="K6" s="11" t="n"/>
       <c r="L6" s="1" t="n">
         <v/>
       </c>
@@ -1520,13 +1504,13 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B7" s="11" t="n"/>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
@@ -1551,12 +1535,8 @@
           <t>2024-05</t>
         </is>
       </c>
-      <c r="J7" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K7" s="11" t="n">
-        <v>3</v>
-      </c>
+      <c r="J7" s="11" t="n"/>
+      <c r="K7" s="11" t="n"/>
       <c r="L7" s="1" t="n">
         <v/>
       </c>
@@ -1668,13 +1648,13 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B8" s="11" t="n"/>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
@@ -1699,12 +1679,8 @@
           <t>2024-06</t>
         </is>
       </c>
-      <c r="J8" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K8" s="11" t="n">
-        <v>24</v>
-      </c>
+      <c r="J8" s="11" t="n"/>
+      <c r="K8" s="11" t="n"/>
       <c r="L8" s="1" t="n">
         <v/>
       </c>
@@ -1816,13 +1792,13 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B9" s="11" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
@@ -1847,12 +1823,8 @@
           <t>2024-07</t>
         </is>
       </c>
-      <c r="J9" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K9" s="11" t="n">
-        <v>24</v>
-      </c>
+      <c r="J9" s="11" t="n"/>
+      <c r="K9" s="11" t="n"/>
       <c r="L9" s="1" t="n">
         <v/>
       </c>
@@ -1964,13 +1936,13 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B10" s="11" t="n"/>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D10" s="11" t="inlineStr">
@@ -1995,12 +1967,8 @@
           <t>2024-08</t>
         </is>
       </c>
-      <c r="J10" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K10" s="11" t="n">
-        <v>24</v>
-      </c>
+      <c r="J10" s="11" t="n"/>
+      <c r="K10" s="11" t="n"/>
       <c r="L10" s="1" t="n">
         <v/>
       </c>
@@ -2112,13 +2080,13 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B11" s="11" t="n"/>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
@@ -2143,12 +2111,8 @@
           <t>2024-09</t>
         </is>
       </c>
-      <c r="J11" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K11" s="11" t="n">
-        <v>24</v>
-      </c>
+      <c r="J11" s="11" t="n"/>
+      <c r="K11" s="11" t="n"/>
       <c r="L11" s="1" t="n">
         <v/>
       </c>
@@ -2260,13 +2224,13 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B12" s="11" t="n"/>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D12" s="11" t="inlineStr">
@@ -2291,12 +2255,8 @@
           <t>2024-10</t>
         </is>
       </c>
-      <c r="J12" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K12" s="11" t="n">
-        <v>24</v>
-      </c>
+      <c r="J12" s="11" t="n"/>
+      <c r="K12" s="11" t="n"/>
       <c r="L12" s="1" t="n">
         <v/>
       </c>
@@ -2408,13 +2368,13 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D13" s="11" t="inlineStr">
@@ -2439,12 +2399,8 @@
           <t>2024-11</t>
         </is>
       </c>
-      <c r="J13" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K13" s="11" t="n">
-        <v>24</v>
-      </c>
+      <c r="J13" s="11" t="n"/>
+      <c r="K13" s="11" t="n"/>
       <c r="L13" s="1" t="n">
         <v/>
       </c>
@@ -2556,13 +2512,13 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B14" s="11" t="n"/>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D14" s="11" t="inlineStr">
@@ -2587,12 +2543,8 @@
           <t>2024-12</t>
         </is>
       </c>
-      <c r="J14" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K14" s="11" t="n">
-        <v>24</v>
-      </c>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="11" t="n"/>
       <c r="L14" s="1" t="n">
         <v/>
       </c>
